--- a/time spent.xlsx
+++ b/time spent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlozanoo\Documents\GitHub\PR-25-SDG-Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D3D98F5-491E-4EF6-9887-D6E898C70AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58951C6B-D1EA-4CC8-AAEF-655E48E1455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{51FA7B74-6C82-4C33-A93D-C38C06450FA8}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="B5:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +536,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <v>45139</v>
+        <v>45138</v>
       </c>
       <c r="C8" s="3">
         <v>0.54166666666666663</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
-        <v>45140</v>
+        <v>45138</v>
       </c>
       <c r="C9" s="6">
         <v>0.79166666666666663</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <v>45141</v>
+        <v>45138</v>
       </c>
       <c r="C10" s="3">
         <v>0.93402777777777779</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>45140</v>
+        <v>45139</v>
       </c>
       <c r="C12" s="3">
         <v>0.49652777777777773</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
-        <v>45141</v>
+        <v>45139</v>
       </c>
       <c r="C13" s="6">
         <v>0.57986111111111105</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
-        <v>45142</v>
+        <v>45139</v>
       </c>
       <c r="C14" s="3">
         <v>0.71180555555555547</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
-        <v>45143</v>
+        <v>45139</v>
       </c>
       <c r="C15" s="6">
         <v>0.9375</v>

--- a/time spent.xlsx
+++ b/time spent.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmlozanoo\Documents\GitHub\PR-25-SDG-Interview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chema\Documents\GitHub\PR-25-SDG-Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58951C6B-D1EA-4CC8-AAEF-655E48E1455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD8D602-AAF6-4AEA-B2AF-4CDB2A2A1D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{51FA7B74-6C82-4C33-A93D-C38C06450FA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51FA7B74-6C82-4C33-A93D-C38C06450FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>description</t>
   </si>
@@ -71,7 +71,10 @@
     <t>time spend(min)</t>
   </si>
   <si>
-    <t>total (10 hours and 55 minutes)</t>
+    <t>total (11 hours and 25 minutes)</t>
+  </si>
+  <si>
+    <t>review before presentation</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -467,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AC3684-6DC0-41A1-A552-DA8F20BAB909}">
-  <dimension ref="B5:F17"/>
+  <dimension ref="B5:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
@@ -530,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" ref="F7:F16" si="0">(D7-C7)*60*24</f>
+        <f t="shared" ref="F7:F17" si="0">(D7-C7)*60*24</f>
         <v>30.000000000000053</v>
       </c>
     </row>
@@ -697,15 +700,33 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11" t="s">
+      <c r="B17" s="2">
+        <v>45165</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>29.999999999999893</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="12">
-        <f>SUM(F6:F16)</f>
-        <v>655.00000000000023</v>
+      <c r="F18" s="12">
+        <f>SUM(F6:F17)</f>
+        <v>685.00000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/time spent.xlsx
+++ b/time spent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chema\Documents\GitHub\PR-25-SDG-Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD8D602-AAF6-4AEA-B2AF-4CDB2A2A1D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB03AA6C-26CC-4C18-AB79-C27810F1750D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51FA7B74-6C82-4C33-A93D-C38C06450FA8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>description</t>
   </si>
@@ -71,10 +71,16 @@
     <t>time spend(min)</t>
   </si>
   <si>
-    <t>total (11 hours and 25 minutes)</t>
-  </si>
-  <si>
     <t>review before presentation</t>
+  </si>
+  <si>
+    <t>corrections</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>total (15 hours and 25 minutes)</t>
   </si>
 </sst>
 </file>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AC3684-6DC0-41A1-A552-DA8F20BAB909}">
-  <dimension ref="B5:F18"/>
+  <dimension ref="B5:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B16" sqref="B16:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" ref="F7:F17" si="0">(D7-C7)*60*24</f>
+        <f t="shared" ref="F7:F19" si="0">(D7-C7)*60*24</f>
         <v>30.000000000000053</v>
       </c>
     </row>
@@ -700,33 +706,69 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>45165</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="6">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>29.999999999999893</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>45168</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="8">
-        <f t="shared" si="0"/>
-        <v>29.999999999999893</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="12">
-        <f>SUM(F6:F17)</f>
-        <v>685.00000000000011</v>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <v>45171</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>129.99999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="12">
+        <f>SUM(F6:F19)</f>
+        <v>925</v>
       </c>
     </row>
   </sheetData>
